--- a/Systemtechnikprojekt/Systemtechnikprojekt/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
+++ b/Systemtechnikprojekt/Systemtechnikprojekt/SysP18-Team10-IST-Zeitplan_v1_2017-10-13.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1725,8 +1725,8 @@
   </sheetPr>
   <dimension ref="A1:AT60"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A13" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="C30" zoomScale="50" zoomScaleNormal="40" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3307,7 +3307,9 @@
       <c r="S28" s="54"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="V28" s="56">
+        <v>30</v>
+      </c>
       <c r="W28" s="54"/>
       <c r="X28" s="54"/>
       <c r="Y28" s="54"/>
@@ -3315,7 +3317,7 @@
       <c r="AA28" s="54"/>
       <c r="AB28" s="54">
         <f>SUM(C28:AA28)</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AC28" s="54"/>
       <c r="AD28" s="54"/>
@@ -3362,7 +3364,9 @@
       <c r="S29" s="54"/>
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
-      <c r="V29" s="56"/>
+      <c r="V29" s="56">
+        <v>30</v>
+      </c>
       <c r="W29" s="54"/>
       <c r="X29" s="54"/>
       <c r="Y29" s="54"/>
@@ -3370,7 +3374,7 @@
       <c r="AA29" s="54"/>
       <c r="AB29" s="54">
         <f t="shared" ref="AB29:AB32" si="1">SUM(C29:AA29)</f>
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="AC29" s="54"/>
       <c r="AD29" s="54"/>
@@ -3417,15 +3421,19 @@
       <c r="S30" s="54"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="56"/>
+      <c r="V30" s="56">
+        <v>40</v>
+      </c>
       <c r="W30" s="54"/>
       <c r="X30" s="54"/>
       <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
+      <c r="Z30" s="54">
+        <v>15</v>
+      </c>
       <c r="AA30" s="54"/>
       <c r="AB30" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AC30" s="54"/>
       <c r="AD30" s="54"/>
@@ -3472,7 +3480,9 @@
       </c>
       <c r="T31" s="55"/>
       <c r="U31" s="55"/>
-      <c r="V31" s="56"/>
+      <c r="V31" s="56">
+        <v>50</v>
+      </c>
       <c r="W31" s="54"/>
       <c r="X31" s="54"/>
       <c r="Y31" s="54"/>
@@ -3524,7 +3534,9 @@
       <c r="S32" s="54"/>
       <c r="T32" s="55"/>
       <c r="U32" s="55"/>
-      <c r="V32" s="56"/>
+      <c r="V32" s="56">
+        <v>50</v>
+      </c>
       <c r="W32" s="85">
         <v>1</v>
       </c>
@@ -3535,14 +3547,14 @@
         <v>1</v>
       </c>
       <c r="Z32" s="85">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AA32" s="85">
         <v>1</v>
       </c>
       <c r="AB32" s="54">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="AC32" s="54"/>
       <c r="AD32" s="54"/>
@@ -3593,7 +3605,7 @@
       <c r="AA33" s="54"/>
       <c r="AB33" s="80">
         <f>SUM(AB28:AB32)</f>
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="AC33" s="54"/>
       <c r="AD33" s="54"/>
@@ -4825,7 +4837,7 @@
       </c>
       <c r="C57" s="131">
         <f>SUM(I14+O24+AB33+AI40+AP46+AS51)</f>
-        <v>235.5</v>
+        <v>414.5</v>
       </c>
       <c r="D57" s="132"/>
       <c r="I57" s="42"/>
